--- a/BackTest/2020-01-20 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-20 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +550,15 @@
         <v>769620.9326000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +583,15 @@
         <v>769620.9326000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +649,15 @@
         <v>914620.8387000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +682,15 @@
         <v>912071.0883000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -744,18 +715,15 @@
         <v>912071.0883000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -924,18 +880,15 @@
         <v>732252.7016000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>705337.9087000003</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1738,15 @@
         <v>476976.2851000003</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>1</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>180811.2471212803</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>180811.2471212803</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>180811.2471212803</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>180811.2471212803</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>161516.3471212803</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-19482.33677871973</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3588,18 +3322,15 @@
         <v>-288288.6904787197</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3660,18 +3388,15 @@
         <v>-411120.8500787197</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3696,18 +3421,15 @@
         <v>-395193.3189787197</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3732,18 +3454,15 @@
         <v>-395872.1704787197</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3804,18 +3520,15 @@
         <v>-536095.8712875698</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3840,18 +3553,15 @@
         <v>-536095.8712875698</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3876,18 +3586,15 @@
         <v>-553595.4549875697</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3912,18 +3619,15 @@
         <v>-553595.4549875697</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3948,18 +3652,15 @@
         <v>-553595.4549875697</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3984,18 +3685,15 @@
         <v>-555041.0830875697</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4020,18 +3718,15 @@
         <v>-595176.6635875697</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4056,18 +3751,15 @@
         <v>-513318.3121875697</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4092,18 +3784,15 @@
         <v>-513750.8705875697</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4128,18 +3817,15 @@
         <v>-515138.3121875697</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4164,18 +3850,15 @@
         <v>-514138.3121875697</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4200,18 +3883,15 @@
         <v>-647816.5732875697</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4236,18 +3916,15 @@
         <v>-952816.9862875696</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4272,18 +3949,15 @@
         <v>-952098.6993875697</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,20 +3984,13 @@
       <c r="H109" t="n">
         <v>1</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="K109" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4348,26 +4015,21 @@
         <v>-1014261.63998757</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
         <v>25.1</v>
       </c>
-      <c r="K110" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="L110" t="inlineStr">
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4392,26 +4054,21 @@
         <v>-1014261.63998757</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
         <v>25</v>
       </c>
-      <c r="K111" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="L111" t="inlineStr">
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4436,26 +4093,21 @@
         <v>-1036001.41458757</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="n">
         <v>25</v>
       </c>
-      <c r="K112" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="L112" t="inlineStr">
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4482,26 +4134,19 @@
       <c r="H113" t="n">
         <v>1</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="K113" t="n">
-        <v>25.1</v>
-      </c>
-      <c r="L113" t="inlineStr">
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-20 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-101855.4644</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>551673.9020000001</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>667232.1321000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>769620.9326000002</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>769620.9326000002</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>914620.8387000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>914620.8387000002</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>912071.0883000002</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>912071.0883000002</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>874561.7016000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>875126.7016000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>875126.7016000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>875126.7016000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>732252.7016000001</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>727083.2529000002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>616366.8129000003</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>246448.1939000002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>705337.9087000003</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>705337.9087000003</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>689678.1008000002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>694559.1008000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>603829.8887000002</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>603829.8887000002</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>603829.8887000002</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>565820.5524000003</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>586343.6044000003</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>586343.6044000003</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>524727.8915000003</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>455809.9499000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>455809.9499000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>455809.9499000002</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>456062.9746000002</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>472468.9746000002</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>472348.8444000002</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>472349.0390000002</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>476976.2851000003</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>377000.8558000003</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>212950.4789000002</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>109029.7766212803</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>111644.6416212803</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>189030.1080212803</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>203273.7397212803</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>203273.7397212803</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>180811.2471212803</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>180811.2471212803</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>180811.2471212803</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>180811.2471212803</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>161516.3471212803</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-13266.65287871973</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>12115.34712128027</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-18859.45277871973</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-18859.45277871973</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-19482.33677871973</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-19482.33677871973</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-19482.33677871973</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-56880.76807871973</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-114974.0711787197</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-217482.5735787197</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-217482.5735787197</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-217482.5735787197</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-217482.5735787197</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-288288.6904787197</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-411120.8500787197</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-395193.3189787197</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-395872.1704787197</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-536095.8712875698</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-536095.8712875698</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-553595.4549875697</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-553595.4549875697</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-553595.4549875697</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-555041.0830875697</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-595176.6635875697</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-513318.3121875697</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-513750.8705875697</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-515138.3121875697</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-514138.3121875697</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-647816.5732875697</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-952816.9862875696</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-952098.6993875697</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-952098.6993875697</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,138 +4015,122 @@
         <v>-1014261.63998757</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
-      </c>
-      <c r="I110" t="n">
-        <v>25.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>25</v>
+      </c>
+      <c r="C111" t="n">
+        <v>25</v>
+      </c>
+      <c r="D111" t="n">
+        <v>25</v>
+      </c>
+      <c r="E111" t="n">
+        <v>25</v>
+      </c>
+      <c r="F111" t="n">
+        <v>163825.3358</v>
+      </c>
+      <c r="G111" t="n">
+        <v>-1014261.63998757</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="C112" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="D112" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="E112" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="F112" t="n">
+        <v>21739.7746</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-1036001.41458757</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="C113" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="D113" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="E113" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="F113" t="n">
+        <v>6629.5147</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1042630.92928757</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>25</v>
-      </c>
-      <c r="C111" t="n">
-        <v>25</v>
-      </c>
-      <c r="D111" t="n">
-        <v>25</v>
-      </c>
-      <c r="E111" t="n">
-        <v>25</v>
-      </c>
-      <c r="F111" t="n">
-        <v>163825.3358</v>
-      </c>
-      <c r="G111" t="n">
-        <v>-1014261.63998757</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
-      <c r="I111" t="n">
-        <v>25</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="C112" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="D112" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="E112" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="F112" t="n">
-        <v>21739.7746</v>
-      </c>
-      <c r="G112" t="n">
-        <v>-1036001.41458757</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
-      <c r="I112" t="n">
-        <v>25</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="C113" t="n">
-        <v>24.74</v>
-      </c>
-      <c r="D113" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="E113" t="n">
-        <v>24.74</v>
-      </c>
-      <c r="F113" t="n">
-        <v>6629.5147</v>
-      </c>
-      <c r="G113" t="n">
-        <v>-1042630.92928757</v>
-      </c>
-      <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
       <c r="M113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-20 BackTest HDAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-101855.4644</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>551673.9020000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>667232.1321000002</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>769620.9326000002</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>914620.8387000002</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>914620.8387000002</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>912071.0883000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>912071.0883000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>874561.7016000001</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>875126.7016000001</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>875126.7016000001</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>875126.7016000001</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>732252.7016000001</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>727083.2529000002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>616366.8129000003</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>246448.1939000002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>705337.9087000003</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>705337.9087000003</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>689678.1008000002</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>694559.1008000002</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>603829.8887000002</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>603829.8887000002</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>603829.8887000002</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>586343.6044000003</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>524727.8915000003</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>455809.9499000002</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>456062.9746000002</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>472348.8444000002</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>472349.0390000002</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>377000.8558000003</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>212950.4789000002</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>212973.8241000003</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>208674.5193000002</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>109029.7766212803</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>111644.6416212803</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>189030.1080212803</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>203273.7397212803</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>203273.7397212803</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>180811.2471212803</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>180811.2471212803</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>180811.2471212803</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>161516.3471212803</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-13266.65287871973</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>12115.34712128027</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-18859.45277871973</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-56880.76807871973</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-114974.0711787197</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-536095.8712875698</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-553595.4549875697</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4048,10 +4048,14 @@
         <v>-1014261.63998757</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>25</v>
+      </c>
+      <c r="J111" t="n">
+        <v>25</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4081,11 +4085,19 @@
         <v>-1036001.41458757</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>25</v>
+      </c>
+      <c r="J112" t="n">
+        <v>25</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4114,12 +4126,12 @@
         <v>-1042630.92928757</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>25</v>
+      </c>
       <c r="K113" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -4131,6 +4143,6 @@
       <c r="M113" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-20 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-20 BackTest HDAC.xlsx
@@ -517,7 +517,7 @@
         <v>667232.1321000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>769620.9326000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>769620.9326000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>914620.8387000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>914620.8387000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>912071.0883000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>912071.0883000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>874561.7016000001</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>875126.7016000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>875126.7016000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>875126.7016000001</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>732252.7016000001</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>727083.2529000002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>616366.8129000003</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>246448.1939000002</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>689678.1008000002</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>565820.5524000003</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>586343.6044000003</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>455809.9499000002</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>455809.9499000002</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>456062.9746000002</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>456062.9746000002</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>472468.9746000002</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>212973.8241000003</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>208674.5193000002</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>217897.3471212803</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>161516.3471212803</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-13266.65287871973</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-18859.45277871973</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-19482.33677871973</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-19482.33677871973</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-19482.33677871973</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-217482.5735787197</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-217482.5735787197</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-217482.5735787197</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-217482.5735787197</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-288288.6904787197</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-536095.8712875698</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-553595.4549875697</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -4048,14 +4048,10 @@
         <v>-1014261.63998757</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>25</v>
-      </c>
-      <c r="J111" t="n">
-        <v>25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
@@ -4093,11 +4089,7 @@
       <c r="J112" t="n">
         <v>25</v>
       </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4126,9 +4118,11 @@
         <v>-1042630.92928757</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>24.91</v>
+      </c>
       <c r="J113" t="n">
         <v>25</v>
       </c>

--- a/BackTest/2020-01-20 BackTest HDAC.xlsx
+++ b/BackTest/2020-01-20 BackTest HDAC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:L113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>19046.9016</v>
       </c>
       <c r="G2" t="n">
-        <v>-101855.4644</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>653529.3664000001</v>
       </c>
       <c r="G3" t="n">
-        <v>551673.9020000001</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>115558.2301</v>
       </c>
       <c r="G4" t="n">
-        <v>667232.1321000002</v>
-      </c>
-      <c r="H4" t="n">
         <v>2</v>
       </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>102388.8005</v>
       </c>
       <c r="G5" t="n">
-        <v>769620.9326000002</v>
-      </c>
-      <c r="H5" t="n">
         <v>2</v>
       </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>28147.1266</v>
       </c>
       <c r="G6" t="n">
-        <v>769620.9326000002</v>
-      </c>
-      <c r="H6" t="n">
         <v>2</v>
       </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>144999.9061</v>
       </c>
       <c r="G7" t="n">
-        <v>914620.8387000002</v>
-      </c>
-      <c r="H7" t="n">
         <v>2</v>
       </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>0.0939</v>
       </c>
       <c r="G8" t="n">
-        <v>914620.8387000002</v>
-      </c>
-      <c r="H8" t="n">
         <v>2</v>
       </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>2549.7504</v>
       </c>
       <c r="G9" t="n">
-        <v>912071.0883000002</v>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
       </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>900</v>
       </c>
       <c r="G10" t="n">
-        <v>912071.0883000002</v>
-      </c>
-      <c r="H10" t="n">
         <v>2</v>
       </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>37509.3867</v>
       </c>
       <c r="G11" t="n">
-        <v>874561.7016000001</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>565</v>
       </c>
       <c r="G12" t="n">
-        <v>875126.7016000001</v>
-      </c>
-      <c r="H12" t="n">
         <v>2</v>
       </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>89037.413</v>
       </c>
       <c r="G13" t="n">
-        <v>875126.7016000001</v>
-      </c>
-      <c r="H13" t="n">
         <v>2</v>
       </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>28583.2133</v>
       </c>
       <c r="G14" t="n">
-        <v>875126.7016000001</v>
-      </c>
-      <c r="H14" t="n">
         <v>2</v>
       </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>142874</v>
       </c>
       <c r="G15" t="n">
-        <v>732252.7016000001</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>5169.4487</v>
       </c>
       <c r="G16" t="n">
-        <v>727083.2529000002</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>110716.44</v>
       </c>
       <c r="G17" t="n">
-        <v>616366.8129000003</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>369918.619</v>
       </c>
       <c r="G18" t="n">
-        <v>246448.1939000002</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>458889.7148</v>
       </c>
       <c r="G19" t="n">
-        <v>705337.9087000003</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>9900</v>
       </c>
       <c r="G20" t="n">
-        <v>705337.9087000003</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>15659.8079</v>
       </c>
       <c r="G21" t="n">
-        <v>689678.1008000002</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>4881</v>
       </c>
       <c r="G22" t="n">
-        <v>694559.1008000002</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>69038.8121</v>
       </c>
       <c r="G23" t="n">
-        <v>625520.2887000003</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>21690.4</v>
       </c>
       <c r="G24" t="n">
-        <v>603829.8887000002</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>22496.7235</v>
       </c>
       <c r="G25" t="n">
-        <v>603829.8887000002</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>10518.6753</v>
       </c>
       <c r="G26" t="n">
-        <v>603829.8887000002</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>38009.3363</v>
       </c>
       <c r="G27" t="n">
-        <v>565820.5524000003</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>20523.052</v>
       </c>
       <c r="G28" t="n">
-        <v>586343.6044000003</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>23324.3858</v>
       </c>
       <c r="G29" t="n">
-        <v>586343.6044000003</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>61615.7129</v>
       </c>
       <c r="G30" t="n">
-        <v>524727.8915000003</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>68917.94160000001</v>
       </c>
       <c r="G31" t="n">
-        <v>455809.9499000002</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>500</v>
       </c>
       <c r="G32" t="n">
-        <v>455809.9499000002</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>1163.27</v>
       </c>
       <c r="G33" t="n">
-        <v>455809.9499000002</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>253.0247</v>
       </c>
       <c r="G34" t="n">
-        <v>456062.9746000002</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>22632.8115</v>
       </c>
       <c r="G35" t="n">
-        <v>456062.9746000002</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>16406</v>
       </c>
       <c r="G36" t="n">
-        <v>472468.9746000002</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>120.1302</v>
       </c>
       <c r="G37" t="n">
-        <v>472348.8444000002</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>0.1946</v>
       </c>
       <c r="G38" t="n">
-        <v>472349.0390000002</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>25.9981</v>
       </c>
       <c r="G39" t="n">
-        <v>472375.0371000002</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>13963</v>
       </c>
       <c r="G40" t="n">
-        <v>458412.0371000002</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>18564.248</v>
       </c>
       <c r="G41" t="n">
-        <v>476976.2851000003</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>300</v>
       </c>
       <c r="G42" t="n">
-        <v>476976.2851000003</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>97.66536963999999</v>
       </c>
       <c r="G43" t="n">
-        <v>476976.2851000003</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>2855.62273036</v>
       </c>
       <c r="G44" t="n">
-        <v>476976.2851000003</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>100000</v>
       </c>
       <c r="G45" t="n">
-        <v>376976.2851000003</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>35000</v>
       </c>
       <c r="G46" t="n">
-        <v>376976.2851000003</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>24.5707</v>
       </c>
       <c r="G47" t="n">
-        <v>377000.8558000003</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>164050.3769</v>
       </c>
       <c r="G48" t="n">
-        <v>212950.4789000002</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>23.3452</v>
       </c>
       <c r="G49" t="n">
-        <v>212973.8241000003</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>4299.3048</v>
       </c>
       <c r="G50" t="n">
-        <v>208674.5193000002</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>44.4004</v>
       </c>
       <c r="G51" t="n">
-        <v>208718.9197000003</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>100000</v>
       </c>
       <c r="G52" t="n">
-        <v>108718.9197000003</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>218279.5748</v>
       </c>
       <c r="G53" t="n">
-        <v>108718.9197000003</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>310.85692128</v>
       </c>
       <c r="G54" t="n">
-        <v>109029.7766212803</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>386.7995</v>
       </c>
       <c r="G55" t="n">
-        <v>109029.7766212803</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>32786.00937872</v>
       </c>
       <c r="G56" t="n">
-        <v>109029.7766212803</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>2614.865</v>
       </c>
       <c r="G57" t="n">
-        <v>111644.6416212803</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>2516.3487</v>
       </c>
       <c r="G58" t="n">
-        <v>109128.2929212803</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>386.1667</v>
       </c>
       <c r="G59" t="n">
-        <v>109514.4596212803</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>9395.071099999999</v>
       </c>
       <c r="G60" t="n">
-        <v>100119.3885212803</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>4037</v>
       </c>
       <c r="G61" t="n">
-        <v>104156.3885212803</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>84873.71950000001</v>
       </c>
       <c r="G62" t="n">
-        <v>189030.1080212803</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>14243.6317</v>
       </c>
       <c r="G63" t="n">
-        <v>203273.7397212803</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>2530.7115</v>
       </c>
       <c r="G64" t="n">
-        <v>203273.7397212803</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>200</v>
       </c>
       <c r="G65" t="n">
-        <v>203273.7397212803</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>22462.4926</v>
       </c>
       <c r="G66" t="n">
-        <v>180811.2471212803</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>35000</v>
       </c>
       <c r="G67" t="n">
-        <v>180811.2471212803</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>50674.7516</v>
       </c>
       <c r="G68" t="n">
-        <v>180811.2471212803</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>21049.9222</v>
       </c>
       <c r="G69" t="n">
-        <v>180811.2471212803</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>37086.1</v>
       </c>
       <c r="G70" t="n">
-        <v>217897.3471212803</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>11735.3674</v>
       </c>
       <c r="G71" t="n">
-        <v>217897.3471212803</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>30590.0919</v>
       </c>
       <c r="G72" t="n">
-        <v>217897.3471212803</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>413.2603</v>
       </c>
       <c r="G73" t="n">
-        <v>217897.3471212803</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>74647.6909</v>
       </c>
       <c r="G74" t="n">
-        <v>217897.3471212803</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>56381</v>
       </c>
       <c r="G75" t="n">
-        <v>161516.3471212803</v>
-      </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>174783</v>
       </c>
       <c r="G76" t="n">
-        <v>-13266.65287871973</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>25382</v>
       </c>
       <c r="G77" t="n">
-        <v>12115.34712128027</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>30974.7999</v>
       </c>
       <c r="G78" t="n">
-        <v>-18859.45277871973</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>3582.8551</v>
       </c>
       <c r="G79" t="n">
-        <v>-18859.45277871973</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>622.884</v>
       </c>
       <c r="G80" t="n">
-        <v>-19482.33677871973</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>48571.38</v>
       </c>
       <c r="G81" t="n">
-        <v>-19482.33677871973</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>20523.052</v>
       </c>
       <c r="G82" t="n">
-        <v>-19482.33677871973</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>37398.4313</v>
       </c>
       <c r="G83" t="n">
-        <v>-56880.76807871973</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>58093.3031</v>
       </c>
       <c r="G84" t="n">
-        <v>-114974.0711787197</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>102508.5024</v>
       </c>
       <c r="G85" t="n">
-        <v>-217482.5735787197</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>48386.6356</v>
       </c>
       <c r="G86" t="n">
-        <v>-217482.5735787197</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>724.9312</v>
       </c>
       <c r="G87" t="n">
-        <v>-217482.5735787197</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>128.3028</v>
       </c>
       <c r="G88" t="n">
-        <v>-217482.5735787197</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>70806.11689999999</v>
       </c>
       <c r="G89" t="n">
-        <v>-288288.6904787197</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>122832.1596</v>
       </c>
       <c r="G90" t="n">
-        <v>-411120.8500787197</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>186241.6297</v>
       </c>
       <c r="G91" t="n">
-        <v>-411120.8500787197</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>15927.5311</v>
       </c>
       <c r="G92" t="n">
-        <v>-395193.3189787197</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>678.8515</v>
       </c>
       <c r="G93" t="n">
-        <v>-395872.1704787197</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>144614.3509</v>
       </c>
       <c r="G94" t="n">
-        <v>-540486.5213787197</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>4390.65009115</v>
       </c>
       <c r="G95" t="n">
-        <v>-536095.8712875698</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>2181.267</v>
       </c>
       <c r="G96" t="n">
-        <v>-536095.8712875698</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>17499.5837</v>
       </c>
       <c r="G97" t="n">
-        <v>-553595.4549875697</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>2699.3179</v>
       </c>
       <c r="G98" t="n">
-        <v>-553595.4549875697</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>905</v>
       </c>
       <c r="G99" t="n">
-        <v>-553595.4549875697</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>1445.6281</v>
       </c>
       <c r="G100" t="n">
-        <v>-555041.0830875697</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>40135.5805</v>
       </c>
       <c r="G101" t="n">
-        <v>-595176.6635875697</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>81858.3514</v>
       </c>
       <c r="G102" t="n">
-        <v>-513318.3121875697</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>432.5584</v>
       </c>
       <c r="G103" t="n">
-        <v>-513750.8705875697</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>1387.4416</v>
       </c>
       <c r="G104" t="n">
-        <v>-515138.3121875697</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>1000</v>
       </c>
       <c r="G105" t="n">
-        <v>-514138.3121875697</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>133678.2611</v>
       </c>
       <c r="G106" t="n">
-        <v>-647816.5732875697</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>305000.413</v>
       </c>
       <c r="G107" t="n">
-        <v>-952816.9862875696</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>718.2868999999999</v>
       </c>
       <c r="G108" t="n">
-        <v>-952098.6993875697</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>775.85</v>
       </c>
       <c r="G109" t="n">
-        <v>-952098.6993875697</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>62162.9406</v>
       </c>
       <c r="G110" t="n">
-        <v>-1014261.63998757</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>163825.3358</v>
       </c>
       <c r="G111" t="n">
-        <v>-1014261.63998757</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,22 +3743,19 @@
         <v>21739.7746</v>
       </c>
       <c r="G112" t="n">
-        <v>-1036001.41458757</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I112" t="n">
         <v>25</v>
       </c>
-      <c r="J112" t="n">
-        <v>25</v>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4115,26 +3777,23 @@
         <v>6629.5147</v>
       </c>
       <c r="G113" t="n">
-        <v>-1042630.92928757</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>24.91</v>
       </c>
       <c r="I113" t="n">
-        <v>24.91</v>
-      </c>
-      <c r="J113" t="n">
         <v>25</v>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
